--- a/tables/DE/SDE_rand_1_bin_F_09_Cr_09_pop50/DE_table2_F9_dim30.xlsx
+++ b/tables/DE/SDE_rand_1_bin_F_09_Cr_09_pop50/DE_table2_F9_dim30.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
-  <si>
-    <t>Gen</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+  <si>
+    <t>MaxFES</t>
   </si>
   <si>
     <t>Run  0</t>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>Run 49</t>
-  </si>
-  <si>
-    <t>Run 50</t>
   </si>
   <si>
     <t>Mean</t>
@@ -526,7 +523,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:BA14"/>
+  <dimension ref="A1:AZ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,7 +531,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,11 +688,8 @@
       <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -850,15 +844,12 @@
         <v>479.01585117</v>
       </c>
       <c r="AZ2" t="n">
-        <v>729.46574586</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>628.7831486600001</v>
+        <v>626.76949671</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1" t="n">
-        <v>6</v>
+        <v>0.001</v>
       </c>
       <c r="B3" t="n">
         <v>588.59955559</v>
@@ -1011,15 +1002,12 @@
         <v>479.01585117</v>
       </c>
       <c r="AZ3" t="n">
-        <v>729.46574586</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>628.7831486600001</v>
+        <v>626.76949671</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1" t="n">
-        <v>60</v>
+        <v>0.01</v>
       </c>
       <c r="B4" t="n">
         <v>588.59955559</v>
@@ -1172,15 +1160,12 @@
         <v>479.01585117</v>
       </c>
       <c r="AZ4" t="n">
-        <v>645.94929623</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>579.99591758</v>
+        <v>578.6768499999999</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1" t="n">
-        <v>600</v>
+        <v>0.1</v>
       </c>
       <c r="B5" t="n">
         <v>392.07637992</v>
@@ -1333,15 +1318,12 @@
         <v>359.41548662</v>
       </c>
       <c r="AZ5" t="n">
-        <v>373.34938511</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>379.34057277</v>
+        <v>379.46039652</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1" t="n">
-        <v>1200</v>
+        <v>0.2</v>
       </c>
       <c r="B6" t="n">
         <v>323.54851585</v>
@@ -1494,15 +1476,12 @@
         <v>274.32616927</v>
       </c>
       <c r="AZ6" t="n">
-        <v>327.2730639</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>315.79847136</v>
+        <v>315.56897951</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1" t="n">
-        <v>1799</v>
+        <v>0.3</v>
       </c>
       <c r="B7" t="n">
         <v>249.18013063</v>
@@ -1655,15 +1634,12 @@
         <v>239.40264733</v>
       </c>
       <c r="AZ7" t="n">
-        <v>322.91487407</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>281.78632177</v>
+        <v>280.96375073</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1" t="n">
-        <v>2399</v>
+        <v>0.4</v>
       </c>
       <c r="B8" t="n">
         <v>220.19117265</v>
@@ -1816,15 +1792,12 @@
         <v>239.40264733</v>
       </c>
       <c r="AZ8" t="n">
-        <v>248.37961372</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>263.76198672</v>
+        <v>264.06963418</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1" t="n">
-        <v>2999</v>
+        <v>0.5</v>
       </c>
       <c r="B9" t="n">
         <v>217.88826279</v>
@@ -1977,15 +1950,12 @@
         <v>239.40264733</v>
       </c>
       <c r="AZ9" t="n">
-        <v>242.38957041</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>249.33536755</v>
+        <v>249.47428349</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1" t="n">
-        <v>3599</v>
+        <v>0.6</v>
       </c>
       <c r="B10" t="n">
         <v>217.88826279</v>
@@ -2138,15 +2108,12 @@
         <v>239.40264733</v>
       </c>
       <c r="AZ10" t="n">
-        <v>225.29585438</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>232.48376755</v>
+        <v>232.62752581</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1" t="n">
-        <v>4199</v>
+        <v>0.7</v>
       </c>
       <c r="B11" t="n">
         <v>205.56861172</v>
@@ -2299,15 +2266,12 @@
         <v>219.70626769</v>
       </c>
       <c r="AZ11" t="n">
-        <v>225.29585438</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>220.47625852</v>
+        <v>220.37986661</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1" t="n">
-        <v>4798</v>
+        <v>0.8</v>
       </c>
       <c r="B12" t="n">
         <v>200.8118453</v>
@@ -2460,15 +2424,12 @@
         <v>219.70626769</v>
       </c>
       <c r="AZ12" t="n">
-        <v>211.18780825</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>212.45615846</v>
+        <v>212.48152546</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1" t="n">
-        <v>5398</v>
+        <v>0.9</v>
       </c>
       <c r="B13" t="n">
         <v>194.05452837</v>
@@ -2621,15 +2582,12 @@
         <v>219.70626769</v>
       </c>
       <c r="AZ13" t="n">
-        <v>210.54656326</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>205.70650054</v>
+        <v>205.60969929</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1" t="n">
-        <v>5998</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
         <v>194.05452837</v>
@@ -2782,10 +2740,7 @@
         <v>219.70626769</v>
       </c>
       <c r="AZ14" t="n">
-        <v>209.71246084</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>199.52739221</v>
+        <v>199.32369083</v>
       </c>
     </row>
   </sheetData>
